--- a/Tests_VK.xlsx
+++ b/Tests_VK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\Курсы Тестирование\Новая папка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\Git\MyFIrstRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2C06E7E-D4A6-454B-8639-DD62646A5F90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2896D22-20CA-44EA-A46F-743AC8B73A08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>passed</t>
   </si>
@@ -828,7 +828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1009,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1180,7 +1189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1322,6 +1331,33 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1331,32 +1367,8 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2274,10 +2286,10 @@
   <dimension ref="A1:DT63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2286,7 +2298,7 @@
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="5" max="5" width="62" customWidth="1"/>
     <col min="6" max="6" width="41.140625" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
@@ -2321,7 +2333,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="15">
         <f>COUNTIF(L$8:L$44,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="15">
@@ -2366,7 +2378,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="16">
         <f>COUNTIF(L$8:L$44,"passed")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="16">
@@ -2409,7 +2421,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="21">
+        <v>44230</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="21"/>
       <c r="O3" s="10"/>
@@ -2493,43 +2507,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="54"/>
+      <c r="J6" s="63"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="62" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="62" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="53"/>
+      <c r="P6" s="62"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="53"/>
+      <c r="R6" s="62"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="53"/>
+      <c r="T6" s="62"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -2539,29 +2553,29 @@
     </row>
     <row r="7" spans="1:124" ht="98.25" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="59"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="55"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="64"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="53"/>
+      <c r="L7" s="62"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="53"/>
+      <c r="N7" s="62"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="53"/>
+      <c r="P7" s="62"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="53"/>
+      <c r="R7" s="62"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="53"/>
+      <c r="T7" s="62"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2591,7 +2605,9 @@
       <c r="I8" s="44"/>
       <c r="J8" s="3"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="46"/>
+      <c r="L8" s="46" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="46"/>
       <c r="O8" s="10"/>
@@ -2627,7 +2643,9 @@
       <c r="I9" s="48"/>
       <c r="J9" s="3"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="46"/>
+      <c r="L9" s="46" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="46"/>
       <c r="O9" s="10"/>
@@ -2663,7 +2681,9 @@
       <c r="I10" s="48"/>
       <c r="J10" s="3"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="46"/>
+      <c r="L10" s="46" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="46"/>
       <c r="O10" s="10"/>
@@ -2699,7 +2719,9 @@
       <c r="I11" s="44"/>
       <c r="J11" s="3"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="46"/>
+      <c r="L11" s="46" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="10"/>
       <c r="N11" s="46"/>
       <c r="O11" s="10"/>
@@ -2715,7 +2737,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:124" s="47" customFormat="1" ht="225">
+    <row r="12" spans="1:124" s="47" customFormat="1" ht="150">
       <c r="A12" s="7"/>
       <c r="B12" s="3">
         <v>5</v>
@@ -2735,7 +2757,9 @@
       <c r="I12" s="49"/>
       <c r="J12" s="26"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="50"/>
+      <c r="L12" s="65" t="s">
+        <v>1</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="50"/>
       <c r="O12" s="10"/>
@@ -3034,7 +3058,7 @@
       <c r="B18" s="6">
         <v>11</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="53" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -3220,7 +3244,7 @@
       <c r="D23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="54" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -4342,12 +4366,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -4355,6 +4373,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L14:L44 R14:R44 P14:P44 T14:T44 T8:T12 P8:P12 R8:R12 L8:L12 N8:N12 N14:N44" xr:uid="{00000000-0002-0000-0100-000000000000}">
